--- a/biology/Écologie/Modèle_de_Ricker/Modèle_de_Ricker.xlsx
+++ b/biology/Écologie/Modèle_de_Ricker/Modèle_de_Ricker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mod%C3%A8le_de_Ricker</t>
+          <t>Modèle_de_Ricker</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En dynamique des populations, le modèle de Ricker est un modèle en temps discret de croissance d'une population. Il est nommé d'après Bill Ricker et a été formulé en 1954 dans le cadre de l'étude de la dynamique des stocks de poissons et la gestion des pêcheries.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mod%C3%A8le_de_Ricker</t>
+          <t>Modèle_de_Ricker</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Formulation du modèle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le modèle de Ricker décrit le nombre d'individus (ou la densité d'individus) au temps 
         t
@@ -553,7 +567,7 @@
         x
         )
     {\displaystyle f:x\mapsto f(x)}
- est une fonction. Le choix de Bill Ricker[1] se porte sur 
+ est une fonction. Le choix de Bill Ricker se porte sur 
         f
         (
         x
@@ -601,7 +615,7 @@
         0
     {\displaystyle K&gt;0}
  comme la capacité biotique de l'environnement.
-Ce modèle peut être vu comme un cas limite du modèle de Hassel[2]: 
+Ce modèle peut être vu comme un cas limite du modèle de Hassel: 
           N
             t
             +
@@ -632,7 +646,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mod%C3%A8le_de_Ricker</t>
+          <t>Modèle_de_Ricker</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -652,11 +666,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Influence du taux de croissance
-Le comportement de la suite générée par le modèle de Ricker dépend de la valeur de 
+          <t>Influence du taux de croissance</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le comportement de la suite générée par le modèle de Ricker dépend de la valeur de 
         r
     {\displaystyle r}
-[3]. La suite converge vers un équilibre stable, évolue selon un cycle périodique ou a un comportement chaotique. Par le calcul[réf. nécessaire], on obtient : 
+. La suite converge vers un équilibre stable, évolue selon un cycle périodique ou a un comportement chaotique. Par le calcul[réf. nécessaire], on obtient : 
 pour 
         0
         &lt;
@@ -684,8 +703,43 @@
     {\displaystyle r&gt;2,692}
 , la population aura un comportement chaotique, avec des retours ponctuels à la périodicité.
 Une population dont la croissance peut être modélisée selon une suite de Ricker aura ainsi un comportement convergent, périodique, ou chaotique, en fonction des paramètres. Ces différents comportement sont illustrés par l'image présente issue d'une simulation numérique.
-Influence de la capacité biotique
-La capacité biotique 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Modèle_de_Ricker</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mod%C3%A8le_de_Ricker</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Analyse du modèle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Influence de la capacité biotique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La capacité biotique 
         K
     {\displaystyle K}
  représente la population maximale que le milieu peut accueillir. Si  
@@ -704,7 +758,7 @@
  quel que soit 
         t
     {\displaystyle t}
- : la population est constante[3]. En revanche, si 
+ : la population est constante. En revanche, si 
           N
             0
         ≠
@@ -718,44 +772,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mod%C3%A8le_de_Ricker</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mod%C3%A8le_de_Ricker</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Applications</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le modèle de Ricker a été utilisé pour prédire la dynamique de populations de poissons dans une pêcherie[4],[5].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mod%C3%A8le_de_Ricker</t>
+          <t>Modèle_de_Ricker</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -770,12 +793,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Applications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le modèle de Ricker a été utilisé pour prédire la dynamique de populations de poissons dans une pêcherie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Modèle_de_Ricker</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mod%C3%A8le_de_Ricker</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs modèles dérivant du modèle de Ricker ont été formulés, notamment pour prendre en compte la compétition pour les ressources (compétition par exploitation)[6],[2]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs modèles dérivant du modèle de Ricker ont été formulés, notamment pour prendre en compte la compétition pour les ressources (compétition par exploitation),
 </t>
         </is>
       </c>
